--- a/predição do mini índice/02-Tratamento de dados/correlação.xlsx
+++ b/predição do mini índice/02-Tratamento de dados/correlação.xlsx
@@ -465,13 +465,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2593207071500391</v>
+        <v>-0.3421318326703847</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06743287055580825</v>
+        <v>-0.05981721886630817</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.02392364444710552</v>
+        <v>-0.01187645552255706</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2593207071500391</v>
+        <v>-0.3421318326703847</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0217290771602022</v>
+        <v>-0.01737782120609402</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00287383043407326</v>
+        <v>-0.03209671328666334</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06743287055580825</v>
+        <v>-0.05981721886630817</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0217290771602022</v>
+        <v>-0.01737782120609402</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6984570659081822</v>
+        <v>0.6177799645435853</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02392364444710552</v>
+        <v>-0.01187645552255706</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00287383043407326</v>
+        <v>-0.03209671328666334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6984570659081822</v>
+        <v>0.6177799645435853</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>

--- a/predição do mini índice/02-Tratamento de dados/correlação.xlsx
+++ b/predição do mini índice/02-Tratamento de dados/correlação.xlsx
@@ -465,13 +465,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3421318326703847</v>
+        <v>-0.3268663651548084</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.05981721886630817</v>
+        <v>-0.04085363134521969</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01187645552255706</v>
+        <v>0.00491632834117686</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3421318326703847</v>
+        <v>-0.3268663651548084</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01737782120609402</v>
+        <v>-0.04633599053858158</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03209671328666334</v>
+        <v>-0.04156361073049019</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05981721886630817</v>
+        <v>-0.04085363134521969</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01737782120609402</v>
+        <v>-0.04633599053858158</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6177799645435853</v>
+        <v>0.5991146644228812</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01187645552255706</v>
+        <v>0.00491632834117686</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.03209671328666334</v>
+        <v>-0.04156361073049019</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6177799645435853</v>
+        <v>0.5991146644228812</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>

--- a/predição do mini índice/02-Tratamento de dados/correlação.xlsx
+++ b/predição do mini índice/02-Tratamento de dados/correlação.xlsx
@@ -465,13 +465,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3268663651548084</v>
+        <v>-0.3323366880410899</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.04085363134521969</v>
+        <v>-0.05051947030418341</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00491632834117686</v>
+        <v>0.001639338487800563</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3268663651548084</v>
+        <v>-0.3323366880410899</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.04633599053858158</v>
+        <v>-0.03250539117421857</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.04156361073049019</v>
+        <v>-0.03839650911627773</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04085363134521969</v>
+        <v>-0.05051947030418341</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.04633599053858158</v>
+        <v>-0.03250539117421857</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5991146644228812</v>
+        <v>0.6017484432445431</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00491632834117686</v>
+        <v>0.001639338487800563</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.04156361073049019</v>
+        <v>-0.03839650911627773</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5991146644228812</v>
+        <v>0.6017484432445431</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>

--- a/predição do mini índice/02-Tratamento de dados/correlação.xlsx
+++ b/predição do mini índice/02-Tratamento de dados/correlação.xlsx
@@ -436,96 +436,96 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>&lt;PREÇO&gt;</t>
+          <t>&lt;PREÇO MÉDIO NORMALIZADO DAS VELAS&gt;</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>&lt;TAMANHO NORMALIZADO&gt;</t>
+          <t>&lt;TAMANHO MÉDIO NORMALIZADO DAS VELAS&gt;</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>&lt;VARIAÇÃO DO PREÇO NORMALIZADO&gt;</t>
+          <t>&lt;VARIAÇÃO MÉDIO NORMALIZADO DAS VELAS&gt;</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>&lt;VOLUME NORMALIZADO&gt;</t>
+          <t>&lt;VOLUME MÉDIO NORMALIZADO DAS VELAS&gt;</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>&lt;PREÇO&gt;</t>
+          <t>&lt;PREÇO MÉDIO NORMALIZADO DAS VELAS&gt;</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3323366880410899</v>
+        <v>-0.04791207056027691</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.05051947030418341</v>
+        <v>-0.01563041560007183</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001639338487800563</v>
+        <v>0.08986553152568581</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>&lt;TAMANHO NORMALIZADO&gt;</t>
+          <t>&lt;TAMANHO MÉDIO NORMALIZADO DAS VELAS&gt;</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3323366880410899</v>
+        <v>-0.04791207056027691</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03250539117421857</v>
+        <v>0.3562761567602113</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03839650911627773</v>
+        <v>0.08550833351994419</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;VARIAÇÃO DO PREÇO NORMALIZADO&gt;</t>
+          <t>&lt;VARIAÇÃO MÉDIO NORMALIZADO DAS VELAS&gt;</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05051947030418341</v>
+        <v>-0.01563041560007183</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.03250539117421857</v>
+        <v>0.3562761567602113</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6017484432445431</v>
+        <v>0.1970095822507517</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>&lt;VOLUME NORMALIZADO&gt;</t>
+          <t>&lt;VOLUME MÉDIO NORMALIZADO DAS VELAS&gt;</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001639338487800563</v>
+        <v>0.08986553152568581</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.03839650911627773</v>
+        <v>0.08550833351994419</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6017484432445431</v>
+        <v>0.1970095822507517</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
